--- a/metrics/R2/Amputación extremidades inferiores.xlsx
+++ b/metrics/R2/Amputación extremidades inferiores.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994033269839611</v>
+        <v>0.9943347821518321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9940709551924127</v>
+        <v>0.99393435282297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99406534896342</v>
+        <v>0.9940335043889796</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9846628259844917</v>
+        <v>0.9850277839156065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9855740168092965</v>
+        <v>0.984151486532484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9845206026501852</v>
+        <v>0.9843573581379104</v>
       </c>
     </row>
   </sheetData>
